--- a/wild_reports/tr0710t007_wild_report.xlsx
+++ b/wild_reports/tr0710t007_wild_report.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
